--- a/public/Assets/Files/template_import.xlsx
+++ b/public/Assets/Files/template_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\inventaris\public\Assets\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7F695-3F79-4AED-B50C-48F02218129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E57EB-B517-43D7-9BFC-7FDB3A860F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{6395F108-DA91-4FD0-9FB2-0BE50007F426}"/>
+    <workbookView xWindow="2256" yWindow="2244" windowWidth="18024" windowHeight="9768" xr2:uid="{6395F108-DA91-4FD0-9FB2-0BE50007F426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>kode_inventari</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>nama_inventaris</t>
   </si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>qty</t>
-  </si>
-  <si>
-    <t>BRG-**</t>
   </si>
   <si>
     <t>satuan</t>
@@ -471,60 +465,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143A98E2-015C-43DB-B1CD-5A1F2F3ECD3F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -539,54 +529,50 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45536</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45536</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45537</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45537</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -601,19 +587,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45536</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45536</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
